--- a/requisitos funcionais.xlsx
+++ b/requisitos funcionais.xlsx
@@ -14,54 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>RF1</t>
-  </si>
-  <si>
-    <t>cadastrar animais</t>
-  </si>
-  <si>
-    <t>RF2</t>
-  </si>
-  <si>
-    <t>gerenciar clientes</t>
-  </si>
-  <si>
-    <t>RF3</t>
-  </si>
-  <si>
-    <t>cadastrar funcionarios</t>
-  </si>
-  <si>
-    <t>RF4</t>
-  </si>
-  <si>
-    <t>cadastrar fornecedores</t>
-  </si>
-  <si>
-    <t>RF5</t>
-  </si>
-  <si>
-    <t>cadastrar ptodutos</t>
-  </si>
-  <si>
-    <t>RF6</t>
-  </si>
-  <si>
-    <t>gerenciar contas</t>
-  </si>
-  <si>
-    <t>RF7</t>
-  </si>
-  <si>
-    <t>gerenciar estoque</t>
-  </si>
-  <si>
-    <t>RF8</t>
-  </si>
-  <si>
-    <t>imprimir notas</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>RNF1</t>
+  </si>
+  <si>
+    <t>adicionar serviço</t>
+  </si>
+  <si>
+    <t>RNF2</t>
+  </si>
+  <si>
+    <t>alterar serviço</t>
+  </si>
+  <si>
+    <t>RNF3</t>
+  </si>
+  <si>
+    <t>remover serviço</t>
+  </si>
+  <si>
+    <t>RNF4</t>
+  </si>
+  <si>
+    <t>confirmar agendamento</t>
+  </si>
+  <si>
+    <t>RNF5</t>
+  </si>
+  <si>
+    <t>criar conta empresa</t>
+  </si>
+  <si>
+    <t>RNF6</t>
+  </si>
+  <si>
+    <t>criar conta cliente</t>
+  </si>
+  <si>
+    <t>RNF7</t>
+  </si>
+  <si>
+    <t>cadastrar pet</t>
+  </si>
+  <si>
+    <t>RNF9</t>
+  </si>
+  <si>
+    <t>atualizar dados do pet</t>
+  </si>
+  <si>
+    <t>RNF10</t>
+  </si>
+  <si>
+    <t>remover pet</t>
+  </si>
+  <si>
+    <t>RNF11</t>
+  </si>
+  <si>
+    <t>solicitar agendamento</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1012,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -1077,6 +1089,24 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" ht="21" customHeight="1" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="21" customHeight="1" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" ht="21" customHeight="1"/>
+    <row r="13" ht="21" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
